--- a/excel/nitin.xlsx
+++ b/excel/nitin.xlsx
@@ -22,6 +22,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
+    <t xml:space="preserve">afa.mp3</t>
+  </si>
+  <si>
     <t xml:space="preserve">what is u r name ____ and age ____</t>
   </si>
   <si>
@@ -44,9 +47,6 @@
   </si>
   <si>
     <t xml:space="preserve">img.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">afa.mp3</t>
   </si>
   <si>
     <t xml:space="preserve">what do u like?</t>
@@ -74,11 +74,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -94,6 +95,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -138,8 +144,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -160,10 +170,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -172,62 +182,64 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="C2" s="0" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B4" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G4" s="0" t="s">
         <v>14</v>
       </c>
     </row>
